--- a/Assets/Excel/Data.xlsx
+++ b/Assets/Excel/Data.xlsx
@@ -4,18 +4,21 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="4" rupBuild="9.114.136.50824"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="560" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="760" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="MainQuest" sheetId="8" r:id="rId1"/>
     <sheet name="SubQuest" sheetId="9" r:id="rId2"/>
-    <sheet name="NPC" sheetId="1" r:id="rId3"/>
-    <sheet name="ITEM" sheetId="2" r:id="rId4"/>
-    <sheet name="GameScene" sheetId="5" r:id="rId5"/>
-    <sheet name="SceneLine" sheetId="6" r:id="rId6"/>
-    <sheet name="HostImage" sheetId="7" r:id="rId7"/>
-    <sheet name="SceneSelection" sheetId="4" r:id="rId8"/>
-    <sheet name="SceneCondition" sheetId="3" r:id="rId9"/>
+    <sheet name="ScenarioData" sheetId="12" r:id="rId3"/>
+    <sheet name="NPC" sheetId="1" r:id="rId4"/>
+    <sheet name="Tower" sheetId="10" r:id="rId5"/>
+    <sheet name="ITEM" sheetId="2" r:id="rId6"/>
+    <sheet name="GameScene" sheetId="5" r:id="rId7"/>
+    <sheet name="SceneLine" sheetId="6" r:id="rId8"/>
+    <sheet name="HostImage" sheetId="7" r:id="rId9"/>
+    <sheet name="SceneSelection" sheetId="4" r:id="rId10"/>
+    <sheet name="LikeabilityCondition" sheetId="11" r:id="rId11"/>
+    <sheet name="SceneCondition" sheetId="3" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="152511"/>
@@ -51,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <si>
     <t>Id</t>
   </si>
@@ -342,6 +345,114 @@
   </si>
   <si>
     <t>서브퀘스트 세번째야</t>
+  </si>
+  <si>
+    <t>ToScene</t>
+  </si>
+  <si>
+    <t>Host</t>
+  </si>
+  <si>
+    <t>HostType</t>
+  </si>
+  <si>
+    <t>HostCode</t>
+  </si>
+  <si>
+    <t>Tower</t>
+  </si>
+  <si>
+    <t>낚시</t>
+  </si>
+  <si>
+    <t>ActionType</t>
+  </si>
+  <si>
+    <t>ActionStrVal</t>
+  </si>
+  <si>
+    <t>bug</t>
+  </si>
+  <si>
+    <t>ActionIntVal</t>
+  </si>
+  <si>
+    <t>ChangeScene</t>
+  </si>
+  <si>
+    <t>ChangeGameScene</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>낚시용품점</t>
+  </si>
+  <si>
+    <t>IsOpen</t>
+  </si>
+  <si>
+    <t>FailContent</t>
+  </si>
+  <si>
+    <t>낚시용품점에는 아직 들어갈 수 없습니다.</t>
+  </si>
+  <si>
+    <t>MainQuestId</t>
+  </si>
+  <si>
+    <t>SubQuestId</t>
+  </si>
+  <si>
+    <t>ActionValStr</t>
+  </si>
+  <si>
+    <t>IntVal</t>
+  </si>
+  <si>
+    <t>ScenSelection</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>targetNPC</t>
+  </si>
+  <si>
+    <t>likeability</t>
+  </si>
+  <si>
+    <t>SceneLine</t>
+  </si>
+  <si>
+    <t>ToUnityScene</t>
+  </si>
+  <si>
+    <t>ToStartScene</t>
+  </si>
+  <si>
+    <t>LikeabilityCondition</t>
+  </si>
+  <si>
+    <t>SceneCondition</t>
+  </si>
+  <si>
+    <t>ToSelectStartScene</t>
+  </si>
+  <si>
+    <t>ConditionKind</t>
+  </si>
+  <si>
+    <t>호감도 체크</t>
+  </si>
+  <si>
+    <t>ConditionVal1</t>
+  </si>
+  <si>
+    <t>ConditionVal2</t>
+  </si>
+  <si>
+    <t>능력치 체크</t>
   </si>
 </sst>
 </file>
@@ -1284,7 +1395,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D11"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -1425,12 +1536,169 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <cols>
+    <col min="1" max="1" width="5.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="8.25500011" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="15.25500011" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="0">
+        <v>1001</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="0">
+        <v>1002</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="0">
+        <v>1003</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <cols>
+    <col min="1" max="1" width="5.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="10.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" width="10.38000011" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="0">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <cols>
+    <col min="1" max="1" width="5.63000011" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="0">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -1573,10 +1841,79 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <cols>
+    <col min="1" max="1" width="12.75500011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="11.75500011" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" width="18.87999916" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" width="12.38000011" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="0">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="0">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="0">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -1957,12 +2294,61 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <cols>
+    <col min="2" max="3" width="11.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" width="7.75500011" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="0">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -2021,11 +2407,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -2078,16 +2464,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A12" sqref="A12:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
+    <col min="3" max="3" width="14.13000011" customWidth="1" outlineLevel="0"/>
     <col min="5" max="5" width="10.50500011" customWidth="1" outlineLevel="0"/>
     <col min="6" max="6" width="12.63000011" customWidth="1" outlineLevel="0"/>
     <col min="7" max="7" width="15.25500011" customWidth="1" outlineLevel="0"/>
@@ -2359,7 +2746,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -2406,87 +2793,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.500000"/>
-  <cols>
-    <col min="1" max="1" width="5.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" width="8.25500011" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="3" width="15.25500011" customWidth="1" outlineLevel="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="0">
-        <v>1001</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="0">
-        <v>1002</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="0">
-        <v>1003</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>86</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.500000"/>
-  <cols>
-    <col min="1" max="1" width="5.63000011" customWidth="1" outlineLevel="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
 </file>
--- a/Assets/Excel/Data.xlsx
+++ b/Assets/Excel/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="4" rupBuild="9.114.136.50824"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="760" activeTab="7"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="750" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="MainQuest" sheetId="8" r:id="rId1"/>
@@ -17,8 +17,9 @@
     <sheet name="SceneCondition" sheetId="3" r:id="rId8"/>
     <sheet name="HostImage" sheetId="7" r:id="rId9"/>
     <sheet name="NPC" sheetId="1" r:id="rId10"/>
-    <sheet name="Tower" sheetId="10" r:id="rId11"/>
-    <sheet name="ITEM" sheetId="2" r:id="rId12"/>
+    <sheet name="Member" sheetId="13" r:id="rId11"/>
+    <sheet name="Tower" sheetId="10" r:id="rId12"/>
+    <sheet name="ITEM" sheetId="2" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="152511"/>
@@ -53,8 +54,15 @@
 </comments>
 </file>
 
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors/>
+  <commentList/>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
   <si>
     <t>Id</t>
   </si>
@@ -453,13 +461,157 @@
   </si>
   <si>
     <t>능력치 체크</t>
+  </si>
+  <si>
+    <t>Gather information of camping site! (캠핑장의 정보를 수집하자!)</t>
+  </si>
+  <si>
+    <t>공인중개사를 따라 관리사무소로 이동하기.</t>
+  </si>
+  <si>
+    <t>Open for the camp site! (캠핑장 영업 개시!)</t>
+  </si>
+  <si>
+    <t>경비실을로 이동해 주차 관리 시스템에 대한 정보를 습득하기.</t>
+  </si>
+  <si>
+    <t>아무 가구를 구입해 관리사무소에 배치하기.</t>
+  </si>
+  <si>
+    <t>손님 3명 이상 받기.</t>
+  </si>
+  <si>
+    <t>캠핑장 구역 3 칸 이상으로 넓히기.</t>
+  </si>
+  <si>
+    <t>클레버 영입하기.</t>
+  </si>
+  <si>
+    <t>자동 주차 관리 시스템 구축하기.</t>
+  </si>
+  <si>
+    <t>주차장 화단 가꾸기.</t>
+  </si>
+  <si>
+    <t>아름다운 주차장!</t>
+  </si>
+  <si>
+    <t>편리한 주차 시설!</t>
+  </si>
+  <si>
+    <t>부원</t>
+  </si>
+  <si>
+    <t>Member</t>
+  </si>
+  <si>
+    <t>Lovers</t>
+  </si>
+  <si>
+    <t>Married</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Woman</t>
+  </si>
+  <si>
+    <t>Man</t>
+  </si>
+  <si>
+    <t>Mixed</t>
+  </si>
+  <si>
+    <t>Older Couple</t>
+  </si>
+  <si>
+    <t>With Pet</t>
+  </si>
+  <si>
+    <t>Pet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adults </t>
+  </si>
+  <si>
+    <t>Adults</t>
+  </si>
+  <si>
+    <t>Children</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seniors </t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>카를로스 (Carlos)</t>
+  </si>
+  <si>
+    <t>클레버 (C</t>
+  </si>
+  <si>
+    <t>클레버 (Clever)</t>
+  </si>
+  <si>
+    <t>필리욘 (Pillion)</t>
+  </si>
+  <si>
+    <t>레이 (Rei)</t>
+  </si>
+  <si>
+    <t>레나 (Rena)</t>
+  </si>
+  <si>
+    <t>필리온 (Pillion)</t>
+  </si>
+  <si>
+    <t>Birth</t>
+  </si>
+  <si>
+    <t>44971</t>
+  </si>
+  <si>
+    <t>02-14</t>
+  </si>
+  <si>
+    <t>11-06</t>
+  </si>
+  <si>
+    <t>헤라 (Hera)</t>
+  </si>
+  <si>
+    <t>08-18</t>
+  </si>
+  <si>
+    <t>08-03</t>
+  </si>
+  <si>
+    <t>01-19</t>
+  </si>
+  <si>
+    <t>07-07</t>
+  </si>
+  <si>
+    <t>Height</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="64" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+    <numFmt numFmtId="65" formatCode="@"/>
+  </numFmts>
   <fonts count="19">
     <font>
       <sz val="11.0"/>
@@ -1038,8 +1190,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="64" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="65" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
@@ -1392,16 +1546,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="2" max="2" width="39.00500107" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="3" width="10.13000011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="59.63000107" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="26.75499916" customWidth="1" outlineLevel="0"/>
     <col min="4" max="4" width="79.87999725" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
@@ -1424,10 +1578,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1435,10 +1589,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1446,10 +1600,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1457,10 +1611,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1468,10 +1622,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1479,54 +1633,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="0">
-        <v>7</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="0">
-        <v>8</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="0">
-        <v>9</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="0">
-        <v>10</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>93</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1538,10 +1648,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -1550,7 +1660,7 @@
     <col min="4" max="4" width="20.87999916" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -1563,13 +1673,16 @@
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="0">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4</v>
+        <v>147</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>5</v>
@@ -1577,13 +1690,16 @@
       <c r="D2" s="0" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="0">
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>147</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>7</v>
@@ -1591,13 +1707,16 @@
       <c r="D3" s="0" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="0">
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>9</v>
+        <v>148</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>5</v>
@@ -1605,13 +1724,16 @@
       <c r="D4" s="0" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="0">
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>9</v>
+        <v>148</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>7</v>
@@ -1619,13 +1741,16 @@
       <c r="D5" s="0" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="0">
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>5</v>
@@ -1633,13 +1758,16 @@
       <c r="D6" s="0" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="0">
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>7</v>
@@ -1647,13 +1775,16 @@
       <c r="D7" s="0" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="0">
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>5</v>
@@ -1661,13 +1792,16 @@
       <c r="D8" s="0" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="0">
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>7</v>
@@ -1675,13 +1809,16 @@
       <c r="D9" s="0" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="0">
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>5</v>
@@ -1689,13 +1826,16 @@
       <c r="D10" s="0" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="0">
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>7</v>
@@ -1703,13 +1843,16 @@
       <c r="D11" s="0" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="0">
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>7</v>
@@ -1717,13 +1860,16 @@
       <c r="D12" s="0" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="0">
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>7</v>
@@ -1731,13 +1877,16 @@
       <c r="D13" s="0" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="0">
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>7</v>
@@ -1745,13 +1894,16 @@
       <c r="D14" s="0" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="0">
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>5</v>
@@ -1759,13 +1911,16 @@
       <c r="D15" s="0" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="0">
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>5</v>
@@ -1773,13 +1928,16 @@
       <c r="D16" s="0" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="0">
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>5</v>
@@ -1787,13 +1945,16 @@
       <c r="D17" s="0" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="0">
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>7</v>
@@ -1801,13 +1962,16 @@
       <c r="D18" s="0" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="0">
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>5</v>
@@ -1815,13 +1979,16 @@
       <c r="D19" s="0" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="0">
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>7</v>
@@ -1829,13 +1996,16 @@
       <c r="D20" s="0" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="0">
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>5</v>
@@ -1843,13 +2013,16 @@
       <c r="D21" s="0" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="0" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="0">
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>7</v>
@@ -1857,13 +2030,16 @@
       <c r="D22" s="0" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="0" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="0">
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>35</v>
+        <v>155</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>36</v>
@@ -1871,13 +2047,16 @@
       <c r="D23" s="0" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="0" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="0">
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>35</v>
+        <v>155</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>5</v>
@@ -1885,13 +2064,16 @@
       <c r="D24" s="0" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="0">
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>35</v>
+        <v>155</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>7</v>
@@ -1899,19 +2081,8 @@
       <c r="D25" s="0" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="0">
-        <v>25</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>53</v>
+      <c r="E25" s="0" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -1924,10 +2095,195 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <cols>
+    <col min="1" max="1" width="3.13000011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" width="16.62999916" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" width="10.38000011" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="0">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" s="0">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G2" s="0">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="0">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" s="0">
+        <v>29</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G3" s="0">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="0">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" s="0">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G4" s="0">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="0">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" s="0">
+        <v>27</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G5" s="0">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="0">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="E6" s="0">
+        <v>27</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G6" s="0">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="0">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="E7" s="0">
+        <v>25</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G7" s="0">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -1971,7 +2327,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -2037,10 +2393,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -2069,10 +2425,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>93</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2080,98 +2436,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="0">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="0">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="0">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="0">
-        <v>6</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="0">
-        <v>7</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="0">
-        <v>8</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="0">
-        <v>9</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="0">
-        <v>10</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2186,7 +2454,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -2720,7 +2988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Excel/Data.xlsx
+++ b/Assets/Excel/Data.xlsx
@@ -4,22 +4,24 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="4" rupBuild="9.114.136.50824"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="750" activeTab="10"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="750" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MainQuest" sheetId="8" r:id="rId1"/>
     <sheet name="SubQuest" sheetId="9" r:id="rId2"/>
-    <sheet name="ScenarioData" sheetId="12" r:id="rId3"/>
-    <sheet name="GameScene" sheetId="5" r:id="rId4"/>
-    <sheet name="SceneLine" sheetId="6" r:id="rId5"/>
-    <sheet name="SceneSelection" sheetId="4" r:id="rId6"/>
-    <sheet name="LikeabilityCondition" sheetId="11" r:id="rId7"/>
+    <sheet name="QuestCondition" sheetId="14" r:id="rId3"/>
+    <sheet name="ScenarioData" sheetId="12" r:id="rId4"/>
+    <sheet name="GameScene" sheetId="5" r:id="rId5"/>
+    <sheet name="SceneLine" sheetId="6" r:id="rId6"/>
+    <sheet name="SceneSelection" sheetId="4" r:id="rId7"/>
     <sheet name="SceneCondition" sheetId="3" r:id="rId8"/>
-    <sheet name="HostImage" sheetId="7" r:id="rId9"/>
-    <sheet name="NPC" sheetId="1" r:id="rId10"/>
-    <sheet name="Member" sheetId="13" r:id="rId11"/>
-    <sheet name="Tower" sheetId="10" r:id="rId12"/>
-    <sheet name="ITEM" sheetId="2" r:id="rId13"/>
+    <sheet name="StatCondition" sheetId="15" r:id="rId9"/>
+    <sheet name="LikeabilityCondition" sheetId="11" r:id="rId10"/>
+    <sheet name="HostImage" sheetId="7" r:id="rId11"/>
+    <sheet name="NPC" sheetId="1" r:id="rId12"/>
+    <sheet name="Member" sheetId="13" r:id="rId13"/>
+    <sheet name="Tower" sheetId="10" r:id="rId14"/>
+    <sheet name="ITEM" sheetId="2" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="152511"/>
@@ -27,6 +29,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors/>
+  <commentList/>
+</comments>
+</file>
+
+<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors/>
   <commentList/>
@@ -61,8 +70,36 @@
 </comments>
 </file>
 
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors/>
+  <commentList/>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors/>
+  <commentList/>
+</comments>
+</file>
+
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors/>
+  <commentList/>
+</comments>
+</file>
+
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors/>
+  <commentList/>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="284">
   <si>
     <t>Id</t>
   </si>
@@ -602,6 +639,318 @@
   </si>
   <si>
     <t>Height</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>MainQuestName</t>
+  </si>
+  <si>
+    <t>MainQuestCondition</t>
+  </si>
+  <si>
+    <t>MainQuestContent</t>
+  </si>
+  <si>
+    <t>MainQuestStatus</t>
+  </si>
+  <si>
+    <t>6W</t>
+  </si>
+  <si>
+    <t>폭죽놀이하기!</t>
+  </si>
+  <si>
+    <t>using DI;</t>
+  </si>
+  <si>
+    <t>using System.Collections;</t>
+  </si>
+  <si>
+    <t>using System.Collections.Generic;</t>
+  </si>
+  <si>
+    <t>using UnityEngine;</t>
+  </si>
+  <si>
+    <t>public class QuestManager : MonoBehaviour</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public int QuestId;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public int SubQuestId;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public int QuestActionIndex; //퀘스트 대화 순서 변수 생성</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public GameObject[] questObject; //퀘스트 오브젝트를 저장할 변수 생성</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public Dictionary&lt;long, MainQuest&gt; mainQuestList;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public Dictionary&lt;int, SubQuest&gt; subQuestList;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [Inject]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    GameData gameData;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    //대화 진행을 위해 퀘스트 대화순서를 올리는 함수 생성</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public string CheckQuest(long id)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        //Next Talk Target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Debug.Log("QuestId : " + QuestId + " / QuestActionIndex : " + QuestActionIndex);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if (id == mainQuestList[QuestId].npcId[QuestActionIndex]) // 즉, 1000 = mainQuestList[10].npcId[0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            QuestActionIndex++;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        //Control Quest Object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ControlObject();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        //Talk Complete &amp; Next Quest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if (QuestActionIndex == mainQuestList[QuestId].npcId.Length)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            NextQuest();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        //Quest Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return mainQuestList[QuestId].MainQuestName;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public string CheckSubQuest(long id)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Debug.Log("SubQuestId : " + SubQuestId + " / QuestActionIndex : " + QuestActionIndex);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if (id == subQuestList[SubQuestId].npcId[QuestActionIndex])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        SubControlObject();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if (QuestActionIndex == subQuestList[SubQuestId].npcId.Length)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            NextSubQuest();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return subQuestList[SubQuestId].SubQuestName;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    //위의 함수와 함수명이 같지만 매개함수가 다르면 구분이 가능함.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    //이 기술은 다음과 같다. &gt;&gt; 오버로딩(Overloading) : 매개변수에 따라 함수 호출</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public string CheckQuest()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public string CheckSubQuest()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void NextQuest()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        QuestId += 1000;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        QuestActionIndex = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void NextSubQuest()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        SubQuestId += 1000000;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void ControlObject() //퀘스트 오브젝트를 관리할 함수 생성</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        switch (QuestId){ //퀘스트번호, 퀘스트 대화순서에 따라 오브젝트 조절</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            case 1000:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                if (QuestActionIndex == 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    questObject[0].SetActive(true);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                break;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            case 2000:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                //불러오기 했을 당시의 퀘스트 순서와 연결된 오브젝트 관리 추가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                if (QuestActionIndex == 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                else if (QuestActionIndex == 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    questObject[0].SetActive(false);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void SubControlObject() //퀘스트 오브젝트를 관리할 함수 생성</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        switch (SubQuestId)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        { //퀘스트번호, 퀘스트 대화순서에 따라 오브젝트 조절</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            case 0:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            case 1000000:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            case 2000000:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            case 3000000:</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>불꽃놀이하기.</t>
+  </si>
+  <si>
+    <t>밤하늘의 꽃</t>
+  </si>
+  <si>
+    <t>val1</t>
+  </si>
+  <si>
+    <t>val2</t>
+  </si>
+  <si>
+    <t>XYPosition</t>
+  </si>
+  <si>
+    <t>GoldHave</t>
+  </si>
+  <si>
+    <t>SceneDone</t>
+  </si>
+  <si>
+    <t>Talk</t>
+  </si>
+  <si>
+    <t>Rei</t>
+  </si>
+  <si>
+    <t>Stat</t>
+  </si>
+  <si>
+    <t>StatType</t>
+  </si>
+  <si>
+    <t>MainQuestDone</t>
+  </si>
+  <si>
+    <t>SetMainQuest</t>
+  </si>
+  <si>
+    <t>Assets/Image_Resource/Character/Hera/Poritait/Casual/Casual_Hera_Default.png</t>
+  </si>
+  <si>
+    <t>Prepare to start</t>
+  </si>
+  <si>
+    <t>게임 시작.</t>
+  </si>
+  <si>
+    <t>SubQuestName</t>
+  </si>
+  <si>
+    <t>SubQuestCondition</t>
+  </si>
+  <si>
+    <t>SubQuestContent</t>
+  </si>
+  <si>
+    <t>ScenarioActionType</t>
+  </si>
+  <si>
+    <t>Casual_Hera_ Sad</t>
+  </si>
+  <si>
+    <t>Casual_Hera_Angry</t>
+  </si>
+  <si>
+    <t>Casual_Hera_Default</t>
+  </si>
+  <si>
+    <t>Casual_Hera_Fear</t>
+  </si>
+  <si>
+    <t>Casual_Hera_Happy</t>
+  </si>
+  <si>
+    <t>Casual_Hera_Ridiculous</t>
+  </si>
+  <si>
+    <t>Casual_Hera_Shy</t>
+  </si>
+  <si>
+    <t>Casual_Hera_Surprised</t>
+  </si>
+  <si>
+    <t>lineType</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
 </sst>
 </file>
@@ -1546,42 +1895,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
+    <col min="1" max="1" width="12.75500011" customWidth="1" outlineLevel="0"/>
     <col min="2" max="2" width="59.63000107" customWidth="1" outlineLevel="0"/>
     <col min="3" max="3" width="26.75499916" customWidth="1" outlineLevel="0"/>
     <col min="4" max="4" width="79.87999725" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" width="16.62999916" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3</v>
+        <v>181</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>89</v>
+        <v>182</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>88</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>133</v>
+        <v>268</v>
+      </c>
+      <c r="C2" s="0">
+        <v>0</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>134</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1591,52 +1945,121 @@
       <c r="B3" s="0" t="s">
         <v>133</v>
       </c>
+      <c r="C3" s="0">
+        <v>1</v>
+      </c>
       <c r="D3" s="0" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>133</v>
       </c>
+      <c r="C4" s="0">
+        <v>2</v>
+      </c>
       <c r="D4" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>135</v>
+        <v>133</v>
+      </c>
+      <c r="C5" s="0">
+        <v>3</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>135</v>
       </c>
+      <c r="C6" s="0">
+        <v>4</v>
+      </c>
       <c r="D6" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="0">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>135</v>
       </c>
+      <c r="C7" s="0">
+        <v>5</v>
+      </c>
       <c r="D7" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="0">
+        <v>6</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="0">
+        <v>6</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <cols>
+    <col min="1" max="1" width="5.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="10.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" width="10.38000011" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1646,7 +2069,157 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <cols>
+    <col min="1" max="1" width="9.75500011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="10.50500011" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="8.75500011" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" width="22.25499916" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="0">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="0">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="0">
+        <v>1</v>
+      </c>
+      <c r="B4" s="0">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0">
+        <v>3</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="0">
+        <v>1</v>
+      </c>
+      <c r="B5" s="0">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0">
+        <v>4</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="0">
+        <v>1</v>
+      </c>
+      <c r="B6" s="0">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0">
+        <v>5</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="0">
+        <v>1</v>
+      </c>
+      <c r="B7" s="0">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0">
+        <v>6</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="0">
+        <v>1</v>
+      </c>
+      <c r="B8" s="0">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0">
+        <v>7</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="0">
+        <v>1</v>
+      </c>
+      <c r="B9" s="0">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0">
+        <v>8</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -2093,11 +2666,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="130" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -2278,7 +2851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -2327,7 +2900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -2393,68 +2966,168 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
+    <col min="1" max="1" width="11.75500011" customWidth="1" outlineLevel="0"/>
     <col min="2" max="2" width="55.63000107" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="3" width="10.13000011" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="18.75499916" customWidth="1" outlineLevel="0"/>
     <col min="4" max="4" width="59.50500107" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3</v>
+        <v>270</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>89</v>
+        <v>271</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>88</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>144</v>
+        <v>268</v>
+      </c>
+      <c r="C2" s="0">
+        <v>0</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>141</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="0">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="0">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B4" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="C4" s="0">
+        <v>2</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="0">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="C5" s="0">
+        <v>3</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <cols>
+    <col min="2" max="2" width="13.13000011" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="9.50500011" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="0">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="0">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -2479,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>103</v>
+        <v>273</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>116</v>
@@ -2502,13 +3175,94 @@
         <v>1</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>123</v>
+        <v>261</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>105</v>
+        <v>262</v>
       </c>
       <c r="G2" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="0">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0">
         <v>0</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="0">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="G3" s="0">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="0">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="0">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="0">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="0">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2518,69 +3272,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.500000"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="0">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="0">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="0">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="0">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:G12"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -2633,10 +3330,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>76</v>
@@ -2656,10 +3353,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>77</v>
@@ -2679,10 +3376,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="0">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>78</v>
@@ -2696,10 +3393,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>70</v>
+        <v>266</v>
       </c>
       <c r="D5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
@@ -2707,8 +3404,8 @@
       <c r="F5" s="0">
         <v>0</v>
       </c>
-      <c r="G5" s="0" t="s">
-        <v>75</v>
+      <c r="G5" s="0">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2725,10 +3422,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>79</v>
@@ -2748,10 +3445,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>78</v>
@@ -2771,10 +3468,10 @@
         <v>1</v>
       </c>
       <c r="E8" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>80</v>
@@ -2794,10 +3491,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>81</v>
@@ -2817,10 +3514,10 @@
         <v>1</v>
       </c>
       <c r="E10" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>82</v>
@@ -2840,10 +3537,10 @@
         <v>1</v>
       </c>
       <c r="E11" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="0">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>83</v>
@@ -2857,12 +3554,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -2890,6 +3587,9 @@
       <c r="B2" s="0" t="s">
         <v>84</v>
       </c>
+      <c r="C2" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="0">
@@ -2898,6 +3598,9 @@
       <c r="B3" s="0" t="s">
         <v>85</v>
       </c>
+      <c r="C3" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="0">
@@ -2905,6 +3608,9 @@
       </c>
       <c r="B4" s="0" t="s">
         <v>86</v>
+      </c>
+      <c r="C4" s="0">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2915,12 +3621,42 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="M38" sqref="M38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <cols>
+    <col min="1" max="1" width="5.63000011" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="0">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -2938,121 +3674,13 @@
         <v>119</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>120</v>
+        <v>264</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>121</v>
+        <v>283</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="0">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.500000"/>
-  <cols>
-    <col min="1" max="1" width="5.63000011" customWidth="1" outlineLevel="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="0">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.500000"/>
-  <cols>
-    <col min="1" max="1" width="9.75500011" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" width="10.50500011" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="3" width="8.75500011" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="4" width="9.88000011" customWidth="1" outlineLevel="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="0">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0">
-        <v>0</v>
-      </c>
-      <c r="C2" s="0">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Data.xlsx
+++ b/Assets/Excel/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="4" rupBuild="9.114.136.50824"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="750" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="750" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="MainQuest" sheetId="8" r:id="rId1"/>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="378">
   <si>
     <t>Id</t>
   </si>
@@ -951,6 +951,288 @@
   </si>
   <si>
     <t>Value</t>
+  </si>
+  <si>
+    <t>안녕</t>
+  </si>
+  <si>
+    <t>난 레이라고 해.</t>
+  </si>
+  <si>
+    <t>잘 부탁해.</t>
+  </si>
+  <si>
+    <t>안녕.</t>
+  </si>
+  <si>
+    <t>아직 문을 열지 않은 듯 하다.</t>
+  </si>
+  <si>
+    <t>난 레나라고 해.</t>
+  </si>
+  <si>
+    <t>Work_Hera_ Sad</t>
+  </si>
+  <si>
+    <t>Work_Hera_Angry</t>
+  </si>
+  <si>
+    <t>Work_Hera_Default</t>
+  </si>
+  <si>
+    <t>Work_Hera_Fear</t>
+  </si>
+  <si>
+    <t>Work_Hera_Ridiculous</t>
+  </si>
+  <si>
+    <t>Work_Hera_Happy</t>
+  </si>
+  <si>
+    <t>Work_Hera_Shy</t>
+  </si>
+  <si>
+    <t>Work_Hera_Surprised</t>
+  </si>
+  <si>
+    <t>Casual_Clever_ Sad</t>
+  </si>
+  <si>
+    <t>Casual_Clever_Angry</t>
+  </si>
+  <si>
+    <t>Casual_Clever_Default</t>
+  </si>
+  <si>
+    <t>Casual_Clever_Fear</t>
+  </si>
+  <si>
+    <t>Casual_Clever_Happy</t>
+  </si>
+  <si>
+    <t>Casual_Clever_Ridiculous</t>
+  </si>
+  <si>
+    <t>Casual_Clever_Shy</t>
+  </si>
+  <si>
+    <t>Casual_Clever_Surprised</t>
+  </si>
+  <si>
+    <t>Work_Clever_ Sad</t>
+  </si>
+  <si>
+    <t>Work_Clever_Angry</t>
+  </si>
+  <si>
+    <t>Work_Clever_Default</t>
+  </si>
+  <si>
+    <t>Work_Clever_Fear</t>
+  </si>
+  <si>
+    <t>Work_Clever_Happy</t>
+  </si>
+  <si>
+    <t>Work_Clever_Ridiculous</t>
+  </si>
+  <si>
+    <t>Work_Clever_Shy</t>
+  </si>
+  <si>
+    <t>Work_Clever_Surprised</t>
+  </si>
+  <si>
+    <t>Casual_Rena_ Sad</t>
+  </si>
+  <si>
+    <t>Casual_Rena_Angry</t>
+  </si>
+  <si>
+    <t>Casual_Rena_Default</t>
+  </si>
+  <si>
+    <t>Casual_Rena_Fear</t>
+  </si>
+  <si>
+    <t>Casual_Rena_Happy</t>
+  </si>
+  <si>
+    <t>Casual_Rena_Ridiculous</t>
+  </si>
+  <si>
+    <t>Casual_Rena_Shy</t>
+  </si>
+  <si>
+    <t>Casual_Rena_Surprised</t>
+  </si>
+  <si>
+    <t>Work_Rena_ Sad</t>
+  </si>
+  <si>
+    <t>Work_Rena_Angry</t>
+  </si>
+  <si>
+    <t>Work_Rena_Default</t>
+  </si>
+  <si>
+    <t>Work_Rena_Fear</t>
+  </si>
+  <si>
+    <t>Work_Rena_Happy</t>
+  </si>
+  <si>
+    <t>Work_Rena_Ridiculous</t>
+  </si>
+  <si>
+    <t>Work_Rena_Shy</t>
+  </si>
+  <si>
+    <t>Work_Rena_Surprised</t>
+  </si>
+  <si>
+    <t>Casual_Rei_ Sad</t>
+  </si>
+  <si>
+    <t>Casual_Rei_Angry</t>
+  </si>
+  <si>
+    <t>Casual_Rei_Default</t>
+  </si>
+  <si>
+    <t>Casual_Rei_Fear</t>
+  </si>
+  <si>
+    <t>Casual_Rei_Happy</t>
+  </si>
+  <si>
+    <t>Casual_Rei_Ridiculous</t>
+  </si>
+  <si>
+    <t>Casual_Rei_Shy</t>
+  </si>
+  <si>
+    <t>Casual_Rei_Surprised</t>
+  </si>
+  <si>
+    <t>Work_Rei_ Sad</t>
+  </si>
+  <si>
+    <t>Work_Rei_Angry</t>
+  </si>
+  <si>
+    <t>Work_Rei_Default</t>
+  </si>
+  <si>
+    <t>Work_Rei_Fear</t>
+  </si>
+  <si>
+    <t>Work_Rei_Happy</t>
+  </si>
+  <si>
+    <t>Work_Rei_Ridiculous</t>
+  </si>
+  <si>
+    <t>Work_Rei_Shy</t>
+  </si>
+  <si>
+    <t>Work_Rei_Surprised</t>
+  </si>
+  <si>
+    <t>Casual_Pillion_ Sad</t>
+  </si>
+  <si>
+    <t>Casual_Pillion_Angry</t>
+  </si>
+  <si>
+    <t>Casual_Pillion_Default</t>
+  </si>
+  <si>
+    <t>Casual_Pillion_Fear</t>
+  </si>
+  <si>
+    <t>Casual_Pillion_Happy</t>
+  </si>
+  <si>
+    <t>Casual_Pillion_Ridiculous</t>
+  </si>
+  <si>
+    <t>Casual_Pillion_Shy</t>
+  </si>
+  <si>
+    <t>Casual_Pillion_Surprised</t>
+  </si>
+  <si>
+    <t>Work_Pillion_ Sad</t>
+  </si>
+  <si>
+    <t>Work_Pillion_Angry</t>
+  </si>
+  <si>
+    <t>Work_Pillion_Default</t>
+  </si>
+  <si>
+    <t>Work_Pillion_Fear</t>
+  </si>
+  <si>
+    <t>Work_Pillion_Happy</t>
+  </si>
+  <si>
+    <t>Work_Pillion_Ridiculous</t>
+  </si>
+  <si>
+    <t>Work_Pillion_Shy</t>
+  </si>
+  <si>
+    <t>Work_Pillion_Surprised</t>
+  </si>
+  <si>
+    <t>Casual_Carlos_ Sad</t>
+  </si>
+  <si>
+    <t>Casual_Carlos_Angry</t>
+  </si>
+  <si>
+    <t>Casual_Carlos_Default</t>
+  </si>
+  <si>
+    <t>Casual_Carlos_Fear</t>
+  </si>
+  <si>
+    <t>Casual_Carlos_Happy</t>
+  </si>
+  <si>
+    <t>Casual_Carlos_Ridiculous</t>
+  </si>
+  <si>
+    <t>Casual_Carlos_Shy</t>
+  </si>
+  <si>
+    <t>Casual_Carlos_Surprised</t>
+  </si>
+  <si>
+    <t>Work_Carlos_ Sad</t>
+  </si>
+  <si>
+    <t>Work_Carlos_Angry</t>
+  </si>
+  <si>
+    <t>Work_Carlos_Default</t>
+  </si>
+  <si>
+    <t>Work_Carlos_Fear</t>
+  </si>
+  <si>
+    <t>Work_Carlos_Happy</t>
+  </si>
+  <si>
+    <t>Work_Carlos_Ridiculous</t>
+  </si>
+  <si>
+    <t>Work_Carlos_Shy</t>
+  </si>
+  <si>
+    <t>Work_Carlos_Surprised</t>
   </si>
 </sst>
 </file>
@@ -2071,10 +2353,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -2209,6 +2491,1238 @@
       </c>
       <c r="D9" s="0" t="s">
         <v>281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="0">
+        <v>1</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2</v>
+      </c>
+      <c r="C10" s="0">
+        <v>1</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="0">
+        <v>1</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2</v>
+      </c>
+      <c r="C11" s="0">
+        <v>2</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="0">
+        <v>1</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2</v>
+      </c>
+      <c r="C12" s="0">
+        <v>3</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="0">
+        <v>1</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2</v>
+      </c>
+      <c r="C13" s="0">
+        <v>4</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="0">
+        <v>1</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2</v>
+      </c>
+      <c r="C14" s="0">
+        <v>5</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="0">
+        <v>1</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2</v>
+      </c>
+      <c r="C15" s="0">
+        <v>6</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="0">
+        <v>1</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2</v>
+      </c>
+      <c r="C16" s="0">
+        <v>7</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="0">
+        <v>1</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2</v>
+      </c>
+      <c r="C17" s="0">
+        <v>8</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="0">
+        <v>2</v>
+      </c>
+      <c r="B18" s="0">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0">
+        <v>1</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="0">
+        <v>2</v>
+      </c>
+      <c r="B19" s="0">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0">
+        <v>2</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="0">
+        <v>2</v>
+      </c>
+      <c r="B20" s="0">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0">
+        <v>3</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="0">
+        <v>2</v>
+      </c>
+      <c r="B21" s="0">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0">
+        <v>4</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="0">
+        <v>2</v>
+      </c>
+      <c r="B22" s="0">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0">
+        <v>5</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="0">
+        <v>2</v>
+      </c>
+      <c r="B23" s="0">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0">
+        <v>6</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="0">
+        <v>2</v>
+      </c>
+      <c r="B24" s="0">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0">
+        <v>7</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="0">
+        <v>2</v>
+      </c>
+      <c r="B25" s="0">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0">
+        <v>8</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="0">
+        <v>2</v>
+      </c>
+      <c r="B26" s="0">
+        <v>2</v>
+      </c>
+      <c r="C26" s="0">
+        <v>1</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="0">
+        <v>2</v>
+      </c>
+      <c r="B27" s="0">
+        <v>2</v>
+      </c>
+      <c r="C27" s="0">
+        <v>2</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="0">
+        <v>2</v>
+      </c>
+      <c r="B28" s="0">
+        <v>2</v>
+      </c>
+      <c r="C28" s="0">
+        <v>3</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="0">
+        <v>2</v>
+      </c>
+      <c r="B29" s="0">
+        <v>2</v>
+      </c>
+      <c r="C29" s="0">
+        <v>4</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="0">
+        <v>2</v>
+      </c>
+      <c r="B30" s="0">
+        <v>2</v>
+      </c>
+      <c r="C30" s="0">
+        <v>5</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="0">
+        <v>2</v>
+      </c>
+      <c r="B31" s="0">
+        <v>2</v>
+      </c>
+      <c r="C31" s="0">
+        <v>6</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="0">
+        <v>2</v>
+      </c>
+      <c r="B32" s="0">
+        <v>2</v>
+      </c>
+      <c r="C32" s="0">
+        <v>7</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="0">
+        <v>2</v>
+      </c>
+      <c r="B33" s="0">
+        <v>2</v>
+      </c>
+      <c r="C33" s="0">
+        <v>8</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="0">
+        <v>3</v>
+      </c>
+      <c r="B34" s="0">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0">
+        <v>1</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="0">
+        <v>3</v>
+      </c>
+      <c r="B35" s="0">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0">
+        <v>2</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="0">
+        <v>3</v>
+      </c>
+      <c r="B36" s="0">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0">
+        <v>3</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="0">
+        <v>3</v>
+      </c>
+      <c r="B37" s="0">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0">
+        <v>4</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="0">
+        <v>3</v>
+      </c>
+      <c r="B38" s="0">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0">
+        <v>5</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="0">
+        <v>3</v>
+      </c>
+      <c r="B39" s="0">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0">
+        <v>6</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="0">
+        <v>3</v>
+      </c>
+      <c r="B40" s="0">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0">
+        <v>7</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="0">
+        <v>3</v>
+      </c>
+      <c r="B41" s="0">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0">
+        <v>8</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="0">
+        <v>3</v>
+      </c>
+      <c r="B42" s="0">
+        <v>2</v>
+      </c>
+      <c r="C42" s="0">
+        <v>1</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="0">
+        <v>3</v>
+      </c>
+      <c r="B43" s="0">
+        <v>2</v>
+      </c>
+      <c r="C43" s="0">
+        <v>2</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="0">
+        <v>3</v>
+      </c>
+      <c r="B44" s="0">
+        <v>2</v>
+      </c>
+      <c r="C44" s="0">
+        <v>3</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="0">
+        <v>3</v>
+      </c>
+      <c r="B45" s="0">
+        <v>2</v>
+      </c>
+      <c r="C45" s="0">
+        <v>4</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="0">
+        <v>3</v>
+      </c>
+      <c r="B46" s="0">
+        <v>2</v>
+      </c>
+      <c r="C46" s="0">
+        <v>5</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="0">
+        <v>3</v>
+      </c>
+      <c r="B47" s="0">
+        <v>2</v>
+      </c>
+      <c r="C47" s="0">
+        <v>6</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="0">
+        <v>3</v>
+      </c>
+      <c r="B48" s="0">
+        <v>2</v>
+      </c>
+      <c r="C48" s="0">
+        <v>7</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="0">
+        <v>3</v>
+      </c>
+      <c r="B49" s="0">
+        <v>2</v>
+      </c>
+      <c r="C49" s="0">
+        <v>8</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="0">
+        <v>4</v>
+      </c>
+      <c r="B50" s="0">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0">
+        <v>1</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="0">
+        <v>4</v>
+      </c>
+      <c r="B51" s="0">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0">
+        <v>2</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="0">
+        <v>4</v>
+      </c>
+      <c r="B52" s="0">
+        <v>1</v>
+      </c>
+      <c r="C52" s="0">
+        <v>3</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="0">
+        <v>4</v>
+      </c>
+      <c r="B53" s="0">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0">
+        <v>4</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="0">
+        <v>4</v>
+      </c>
+      <c r="B54" s="0">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0">
+        <v>5</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="0">
+        <v>4</v>
+      </c>
+      <c r="B55" s="0">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0">
+        <v>6</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="0">
+        <v>4</v>
+      </c>
+      <c r="B56" s="0">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0">
+        <v>7</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="0">
+        <v>4</v>
+      </c>
+      <c r="B57" s="0">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0">
+        <v>8</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="0">
+        <v>4</v>
+      </c>
+      <c r="B58" s="0">
+        <v>2</v>
+      </c>
+      <c r="C58" s="0">
+        <v>1</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="0">
+        <v>4</v>
+      </c>
+      <c r="B59" s="0">
+        <v>2</v>
+      </c>
+      <c r="C59" s="0">
+        <v>2</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="0">
+        <v>4</v>
+      </c>
+      <c r="B60" s="0">
+        <v>2</v>
+      </c>
+      <c r="C60" s="0">
+        <v>3</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="0">
+        <v>4</v>
+      </c>
+      <c r="B61" s="0">
+        <v>2</v>
+      </c>
+      <c r="C61" s="0">
+        <v>4</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="0">
+        <v>4</v>
+      </c>
+      <c r="B62" s="0">
+        <v>2</v>
+      </c>
+      <c r="C62" s="0">
+        <v>5</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="0">
+        <v>4</v>
+      </c>
+      <c r="B63" s="0">
+        <v>2</v>
+      </c>
+      <c r="C63" s="0">
+        <v>6</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="0">
+        <v>4</v>
+      </c>
+      <c r="B64" s="0">
+        <v>2</v>
+      </c>
+      <c r="C64" s="0">
+        <v>7</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="0">
+        <v>4</v>
+      </c>
+      <c r="B65" s="0">
+        <v>2</v>
+      </c>
+      <c r="C65" s="0">
+        <v>8</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="0">
+        <v>5</v>
+      </c>
+      <c r="B66" s="0">
+        <v>1</v>
+      </c>
+      <c r="C66" s="0">
+        <v>1</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="0">
+        <v>5</v>
+      </c>
+      <c r="B67" s="0">
+        <v>1</v>
+      </c>
+      <c r="C67" s="0">
+        <v>2</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="0">
+        <v>5</v>
+      </c>
+      <c r="B68" s="0">
+        <v>1</v>
+      </c>
+      <c r="C68" s="0">
+        <v>3</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="0">
+        <v>5</v>
+      </c>
+      <c r="B69" s="0">
+        <v>1</v>
+      </c>
+      <c r="C69" s="0">
+        <v>4</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="0">
+        <v>5</v>
+      </c>
+      <c r="B70" s="0">
+        <v>1</v>
+      </c>
+      <c r="C70" s="0">
+        <v>5</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="0">
+        <v>5</v>
+      </c>
+      <c r="B71" s="0">
+        <v>1</v>
+      </c>
+      <c r="C71" s="0">
+        <v>6</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="0">
+        <v>5</v>
+      </c>
+      <c r="B72" s="0">
+        <v>1</v>
+      </c>
+      <c r="C72" s="0">
+        <v>7</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="0">
+        <v>5</v>
+      </c>
+      <c r="B73" s="0">
+        <v>1</v>
+      </c>
+      <c r="C73" s="0">
+        <v>8</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="0">
+        <v>5</v>
+      </c>
+      <c r="B74" s="0">
+        <v>2</v>
+      </c>
+      <c r="C74" s="0">
+        <v>1</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="0">
+        <v>5</v>
+      </c>
+      <c r="B75" s="0">
+        <v>2</v>
+      </c>
+      <c r="C75" s="0">
+        <v>2</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="0">
+        <v>5</v>
+      </c>
+      <c r="B76" s="0">
+        <v>2</v>
+      </c>
+      <c r="C76" s="0">
+        <v>3</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="0">
+        <v>5</v>
+      </c>
+      <c r="B77" s="0">
+        <v>2</v>
+      </c>
+      <c r="C77" s="0">
+        <v>4</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="0">
+        <v>5</v>
+      </c>
+      <c r="B78" s="0">
+        <v>2</v>
+      </c>
+      <c r="C78" s="0">
+        <v>5</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="0">
+        <v>5</v>
+      </c>
+      <c r="B79" s="0">
+        <v>2</v>
+      </c>
+      <c r="C79" s="0">
+        <v>6</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="0">
+        <v>5</v>
+      </c>
+      <c r="B80" s="0">
+        <v>2</v>
+      </c>
+      <c r="C80" s="0">
+        <v>7</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="0">
+        <v>5</v>
+      </c>
+      <c r="B81" s="0">
+        <v>2</v>
+      </c>
+      <c r="C81" s="0">
+        <v>8</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="0">
+        <v>6</v>
+      </c>
+      <c r="B82" s="0">
+        <v>1</v>
+      </c>
+      <c r="C82" s="0">
+        <v>1</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="0">
+        <v>6</v>
+      </c>
+      <c r="B83" s="0">
+        <v>1</v>
+      </c>
+      <c r="C83" s="0">
+        <v>2</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="0">
+        <v>6</v>
+      </c>
+      <c r="B84" s="0">
+        <v>1</v>
+      </c>
+      <c r="C84" s="0">
+        <v>3</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="0">
+        <v>6</v>
+      </c>
+      <c r="B85" s="0">
+        <v>1</v>
+      </c>
+      <c r="C85" s="0">
+        <v>4</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="0">
+        <v>6</v>
+      </c>
+      <c r="B86" s="0">
+        <v>1</v>
+      </c>
+      <c r="C86" s="0">
+        <v>5</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="0">
+        <v>6</v>
+      </c>
+      <c r="B87" s="0">
+        <v>1</v>
+      </c>
+      <c r="C87" s="0">
+        <v>6</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="0">
+        <v>6</v>
+      </c>
+      <c r="B88" s="0">
+        <v>1</v>
+      </c>
+      <c r="C88" s="0">
+        <v>7</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="0">
+        <v>6</v>
+      </c>
+      <c r="B89" s="0">
+        <v>1</v>
+      </c>
+      <c r="C89" s="0">
+        <v>8</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="0">
+        <v>6</v>
+      </c>
+      <c r="B90" s="0">
+        <v>2</v>
+      </c>
+      <c r="C90" s="0">
+        <v>1</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="0">
+        <v>6</v>
+      </c>
+      <c r="B91" s="0">
+        <v>2</v>
+      </c>
+      <c r="C91" s="0">
+        <v>2</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="0">
+        <v>6</v>
+      </c>
+      <c r="B92" s="0">
+        <v>2</v>
+      </c>
+      <c r="C92" s="0">
+        <v>3</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="0">
+        <v>6</v>
+      </c>
+      <c r="B93" s="0">
+        <v>2</v>
+      </c>
+      <c r="C93" s="0">
+        <v>4</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="0">
+        <v>6</v>
+      </c>
+      <c r="B94" s="0">
+        <v>2</v>
+      </c>
+      <c r="C94" s="0">
+        <v>5</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="0">
+        <v>6</v>
+      </c>
+      <c r="B95" s="0">
+        <v>2</v>
+      </c>
+      <c r="C95" s="0">
+        <v>6</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="0">
+        <v>6</v>
+      </c>
+      <c r="B96" s="0">
+        <v>2</v>
+      </c>
+      <c r="C96" s="0">
+        <v>7</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="0">
+        <v>6</v>
+      </c>
+      <c r="B97" s="0">
+        <v>2</v>
+      </c>
+      <c r="C97" s="0">
+        <v>8</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -2670,7 +4184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView zoomScale="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -3062,7 +4576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -3127,7 +4641,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -3169,7 +4683,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>101</v>
+        <v>146</v>
       </c>
       <c r="D2" s="0">
         <v>1</v>
@@ -3177,9 +4691,6 @@
       <c r="E2" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>262</v>
-      </c>
       <c r="G2" s="0">
         <v>1</v>
       </c>
@@ -3199,9 +4710,6 @@
       </c>
       <c r="E3" s="0" t="s">
         <v>261</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>262</v>
       </c>
       <c r="G3" s="0">
         <v>2</v>
@@ -3277,7 +4785,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -3336,7 +4844,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>76</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3359,7 +4867,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>77</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3382,7 +4890,7 @@
         <v>3</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>78</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3419,16 +4927,16 @@
         <v>69</v>
       </c>
       <c r="D6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="0">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>79</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:8">

--- a/Assets/Excel/Data.xlsx
+++ b/Assets/Excel/Data.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="4" rupBuild="9.114.136.50824"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="750" activeTab="12"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="750" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="MainQuest" sheetId="8" r:id="rId1"/>
     <sheet name="SubQuest" sheetId="9" r:id="rId2"/>
     <sheet name="QuestCondition" sheetId="14" r:id="rId3"/>
     <sheet name="ScenarioData" sheetId="12" r:id="rId4"/>
-    <sheet name="GameScene" sheetId="5" r:id="rId5"/>
-    <sheet name="SceneLine" sheetId="6" r:id="rId6"/>
+    <sheet name="SceneLine" sheetId="6" r:id="rId5"/>
+    <sheet name="GameScene" sheetId="5" r:id="rId6"/>
     <sheet name="SceneSelection" sheetId="4" r:id="rId7"/>
     <sheet name="SceneCondition" sheetId="3" r:id="rId8"/>
     <sheet name="StatCondition" sheetId="15" r:id="rId9"/>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="401">
   <si>
     <t>Id</t>
   </si>
@@ -1233,6 +1233,75 @@
   </si>
   <si>
     <t>Work_Carlos_Surprised</t>
+  </si>
+  <si>
+    <t>난 클레버라고 해.</t>
+  </si>
+  <si>
+    <t>ㄴ</t>
+  </si>
+  <si>
+    <t>난 필리온라고 해.</t>
+  </si>
+  <si>
+    <t>난 카를로스라고 해.</t>
+  </si>
+  <si>
+    <t>지금은 가게가 문을 연 듯하다.</t>
+  </si>
+  <si>
+    <t>지금은 가게가 문을 연 듯 하다. 들어갈까?</t>
+  </si>
+  <si>
+    <t>1001;1002</t>
+  </si>
+  <si>
+    <t>들어간다</t>
+  </si>
+  <si>
+    <t>아니다, 돌아간다.</t>
+  </si>
+  <si>
+    <t>들어간다.</t>
+  </si>
+  <si>
+    <t>CloseChat</t>
+  </si>
+  <si>
+    <t>SetSubQuest</t>
+  </si>
+  <si>
+    <t>NextSubQuest</t>
+  </si>
+  <si>
+    <t>NextMainQuest</t>
+  </si>
+  <si>
+    <t>또 만났네.</t>
+  </si>
+  <si>
+    <t>Transparent</t>
+  </si>
+  <si>
+    <t>를 선택했다.</t>
+  </si>
+  <si>
+    <t>{AA}개 얻었다.</t>
+  </si>
+  <si>
+    <t>나는 천천히 문을 열고 들어섰다.</t>
+  </si>
+  <si>
+    <t>뒤돌아갔다.</t>
+  </si>
+  <si>
+    <t>sceneLineCode</t>
+  </si>
+  <si>
+    <t>LoadScene</t>
+  </si>
+  <si>
+    <t>FishingShop</t>
   </si>
 </sst>
 </file>
@@ -2353,10 +2422,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -2375,7 +2444,7 @@
         <v>58</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>56</v>
@@ -2383,16 +2452,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>274</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2403,10 +2472,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2417,10 +2486,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2431,10 +2500,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2445,10 +2514,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2459,10 +2528,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2473,10 +2542,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2487,10 +2556,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2498,13 +2567,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="0">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2515,10 +2584,10 @@
         <v>2</v>
       </c>
       <c r="C11" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2529,10 +2598,10 @@
         <v>2</v>
       </c>
       <c r="C12" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2543,10 +2612,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2557,10 +2626,10 @@
         <v>2</v>
       </c>
       <c r="C14" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2571,10 +2640,10 @@
         <v>2</v>
       </c>
       <c r="C15" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2585,10 +2654,10 @@
         <v>2</v>
       </c>
       <c r="C16" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2599,24 +2668,24 @@
         <v>2</v>
       </c>
       <c r="C17" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" s="0">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2627,10 +2696,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2641,10 +2710,10 @@
         <v>1</v>
       </c>
       <c r="C20" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2655,10 +2724,10 @@
         <v>1</v>
       </c>
       <c r="C21" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2669,10 +2738,10 @@
         <v>1</v>
       </c>
       <c r="C22" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2683,10 +2752,10 @@
         <v>1</v>
       </c>
       <c r="C23" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2697,10 +2766,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2711,10 +2780,10 @@
         <v>1</v>
       </c>
       <c r="C25" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2722,13 +2791,13 @@
         <v>2</v>
       </c>
       <c r="B26" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" s="0">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2739,10 +2808,10 @@
         <v>2</v>
       </c>
       <c r="C27" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2753,10 +2822,10 @@
         <v>2</v>
       </c>
       <c r="C28" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2767,10 +2836,10 @@
         <v>2</v>
       </c>
       <c r="C29" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2781,10 +2850,10 @@
         <v>2</v>
       </c>
       <c r="C30" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2795,10 +2864,10 @@
         <v>2</v>
       </c>
       <c r="C31" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2809,10 +2878,10 @@
         <v>2</v>
       </c>
       <c r="C32" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2823,24 +2892,24 @@
         <v>2</v>
       </c>
       <c r="C33" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34" s="0">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2851,10 +2920,10 @@
         <v>1</v>
       </c>
       <c r="C35" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2865,10 +2934,10 @@
         <v>1</v>
       </c>
       <c r="C36" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2879,10 +2948,10 @@
         <v>1</v>
       </c>
       <c r="C37" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2893,10 +2962,10 @@
         <v>1</v>
       </c>
       <c r="C38" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2907,10 +2976,10 @@
         <v>1</v>
       </c>
       <c r="C39" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2921,10 +2990,10 @@
         <v>1</v>
       </c>
       <c r="C40" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2935,10 +3004,10 @@
         <v>1</v>
       </c>
       <c r="C41" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2946,13 +3015,13 @@
         <v>3</v>
       </c>
       <c r="B42" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42" s="0">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2963,10 +3032,10 @@
         <v>2</v>
       </c>
       <c r="C43" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2977,10 +3046,10 @@
         <v>2</v>
       </c>
       <c r="C44" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2991,10 +3060,10 @@
         <v>2</v>
       </c>
       <c r="C45" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3005,10 +3074,10 @@
         <v>2</v>
       </c>
       <c r="C46" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3019,10 +3088,10 @@
         <v>2</v>
       </c>
       <c r="C47" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3033,10 +3102,10 @@
         <v>2</v>
       </c>
       <c r="C48" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3047,24 +3116,24 @@
         <v>2</v>
       </c>
       <c r="C49" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B50" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C50" s="0">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3075,10 +3144,10 @@
         <v>1</v>
       </c>
       <c r="C51" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3089,10 +3158,10 @@
         <v>1</v>
       </c>
       <c r="C52" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3103,10 +3172,10 @@
         <v>1</v>
       </c>
       <c r="C53" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3117,10 +3186,10 @@
         <v>1</v>
       </c>
       <c r="C54" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3131,10 +3200,10 @@
         <v>1</v>
       </c>
       <c r="C55" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3145,10 +3214,10 @@
         <v>1</v>
       </c>
       <c r="C56" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3159,10 +3228,10 @@
         <v>1</v>
       </c>
       <c r="C57" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3170,13 +3239,13 @@
         <v>4</v>
       </c>
       <c r="B58" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C58" s="0">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3187,10 +3256,10 @@
         <v>2</v>
       </c>
       <c r="C59" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3201,10 +3270,10 @@
         <v>2</v>
       </c>
       <c r="C60" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3215,10 +3284,10 @@
         <v>2</v>
       </c>
       <c r="C61" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3229,10 +3298,10 @@
         <v>2</v>
       </c>
       <c r="C62" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3243,10 +3312,10 @@
         <v>2</v>
       </c>
       <c r="C63" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3257,10 +3326,10 @@
         <v>2</v>
       </c>
       <c r="C64" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3271,24 +3340,24 @@
         <v>2</v>
       </c>
       <c r="C65" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B66" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C66" s="0">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3299,10 +3368,10 @@
         <v>1</v>
       </c>
       <c r="C67" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3313,10 +3382,10 @@
         <v>1</v>
       </c>
       <c r="C68" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3327,10 +3396,10 @@
         <v>1</v>
       </c>
       <c r="C69" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3341,10 +3410,10 @@
         <v>1</v>
       </c>
       <c r="C70" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3355,10 +3424,10 @@
         <v>1</v>
       </c>
       <c r="C71" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3369,10 +3438,10 @@
         <v>1</v>
       </c>
       <c r="C72" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3383,10 +3452,10 @@
         <v>1</v>
       </c>
       <c r="C73" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3394,13 +3463,13 @@
         <v>5</v>
       </c>
       <c r="B74" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C74" s="0">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3411,10 +3480,10 @@
         <v>2</v>
       </c>
       <c r="C75" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3425,10 +3494,10 @@
         <v>2</v>
       </c>
       <c r="C76" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3439,10 +3508,10 @@
         <v>2</v>
       </c>
       <c r="C77" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3453,10 +3522,10 @@
         <v>2</v>
       </c>
       <c r="C78" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3467,10 +3536,10 @@
         <v>2</v>
       </c>
       <c r="C79" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3481,10 +3550,10 @@
         <v>2</v>
       </c>
       <c r="C80" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3495,24 +3564,24 @@
         <v>2</v>
       </c>
       <c r="C81" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B82" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C82" s="0">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3523,10 +3592,10 @@
         <v>1</v>
       </c>
       <c r="C83" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3537,10 +3606,10 @@
         <v>1</v>
       </c>
       <c r="C84" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3551,10 +3620,10 @@
         <v>1</v>
       </c>
       <c r="C85" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3565,10 +3634,10 @@
         <v>1</v>
       </c>
       <c r="C86" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3579,10 +3648,10 @@
         <v>1</v>
       </c>
       <c r="C87" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3593,10 +3662,10 @@
         <v>1</v>
       </c>
       <c r="C88" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3607,10 +3676,10 @@
         <v>1</v>
       </c>
       <c r="C89" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3618,13 +3687,13 @@
         <v>6</v>
       </c>
       <c r="B90" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C90" s="0">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3635,10 +3704,10 @@
         <v>2</v>
       </c>
       <c r="C91" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3649,10 +3718,10 @@
         <v>2</v>
       </c>
       <c r="C92" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3663,10 +3732,10 @@
         <v>2</v>
       </c>
       <c r="C93" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3677,10 +3746,10 @@
         <v>2</v>
       </c>
       <c r="C94" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3691,10 +3760,10 @@
         <v>2</v>
       </c>
       <c r="C95" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3705,10 +3774,10 @@
         <v>2</v>
       </c>
       <c r="C96" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3719,9 +3788,23 @@
         <v>2</v>
       </c>
       <c r="C97" s="0">
+        <v>7</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="0">
+        <v>6</v>
+      </c>
+      <c r="B98" s="0">
+        <v>2</v>
+      </c>
+      <c r="C98" s="0">
         <v>8</v>
       </c>
-      <c r="D97" s="0" t="s">
+      <c r="D98" s="0" t="s">
         <v>377</v>
       </c>
     </row>
@@ -4184,7 +4267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0">
+    <sheetView zoomScale="130" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -4638,10 +4721,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -4686,7 +4769,7 @@
         <v>146</v>
       </c>
       <c r="D2" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>261</v>
@@ -4697,22 +4780,142 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="0">
         <v>0</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>101</v>
+        <v>146</v>
       </c>
       <c r="D3" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>261</v>
       </c>
       <c r="G3" s="0">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="0">
+        <v>0</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="0">
+        <v>4</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="G4" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="0">
+        <v>0</v>
+      </c>
+      <c r="B5" s="0">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="0">
+        <v>5</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="G5" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="0">
+        <v>0</v>
+      </c>
+      <c r="B6" s="0">
+        <v>0</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="0">
+        <v>6</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="G6" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="0">
+        <v>0</v>
+      </c>
+      <c r="B7" s="0">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="0">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="G7" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="0">
+        <v>1</v>
+      </c>
+      <c r="B8" s="0">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="0">
+        <v>1</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="G8" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="0">
+        <v>1</v>
+      </c>
+      <c r="B9" s="0">
+        <v>0</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="0">
+        <v>2</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="G9" s="0">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -4725,67 +4928,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.500000"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="0">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="0">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="0">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="0">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -4835,13 +4981,13 @@
         <v>69</v>
       </c>
       <c r="D2" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="0">
         <v>1</v>
       </c>
       <c r="F2" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>287</v>
@@ -4858,16 +5004,16 @@
         <v>69</v>
       </c>
       <c r="D3" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="0">
         <v>1</v>
       </c>
       <c r="F3" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>289</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4881,13 +5027,13 @@
         <v>69</v>
       </c>
       <c r="D4" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="0">
         <v>1</v>
       </c>
       <c r="F4" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>286</v>
@@ -4895,25 +5041,25 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>266</v>
+        <v>69</v>
       </c>
       <c r="D5" s="0">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E5" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="0">
-        <v>0</v>
-      </c>
-      <c r="G5" s="0">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4921,22 +5067,22 @@
         <v>2</v>
       </c>
       <c r="B6" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>69</v>
       </c>
       <c r="D6" s="0">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E6" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="0">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4944,13 +5090,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>69</v>
       </c>
       <c r="D7" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7" s="0">
         <v>1</v>
@@ -4959,58 +5105,34 @@
         <v>5</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>78</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="0">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="0">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0">
-        <v>1</v>
-      </c>
-      <c r="F8" s="0">
-        <v>6</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="0">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0">
-        <v>1</v>
-      </c>
-      <c r="F9" s="0">
-        <v>6</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>81</v>
+        <v>391</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="0">
         <v>0</v>
@@ -5019,21 +5141,21 @@
         <v>69</v>
       </c>
       <c r="D10" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E10" s="0">
         <v>1</v>
       </c>
       <c r="F10" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>82</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" s="0">
         <v>1</v>
@@ -5042,16 +5164,415 @@
         <v>69</v>
       </c>
       <c r="D11" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E11" s="0">
         <v>1</v>
       </c>
       <c r="F11" s="0">
+        <v>3</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="0">
+        <v>3</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="0">
+        <v>4</v>
+      </c>
+      <c r="E12" s="0">
+        <v>1</v>
+      </c>
+      <c r="F12" s="0">
+        <v>5</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="0">
+        <v>4</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="0">
+        <v>5</v>
+      </c>
+      <c r="E13" s="0">
+        <v>1</v>
+      </c>
+      <c r="F13" s="0">
+        <v>3</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="0">
+        <v>4</v>
+      </c>
+      <c r="B14" s="0">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="0">
+        <v>5</v>
+      </c>
+      <c r="E14" s="0">
+        <v>1</v>
+      </c>
+      <c r="F14" s="0">
+        <v>3</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="0">
+        <v>4</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="0">
+        <v>5</v>
+      </c>
+      <c r="E15" s="0">
+        <v>1</v>
+      </c>
+      <c r="F15" s="0">
+        <v>5</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="0">
+        <v>5</v>
+      </c>
+      <c r="B16" s="0">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="0">
+        <v>6</v>
+      </c>
+      <c r="E16" s="0">
+        <v>1</v>
+      </c>
+      <c r="F16" s="0">
+        <v>3</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="0">
+        <v>5</v>
+      </c>
+      <c r="B17" s="0">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="0">
+        <v>6</v>
+      </c>
+      <c r="E17" s="0">
+        <v>1</v>
+      </c>
+      <c r="F17" s="0">
+        <v>3</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="0">
+        <v>5</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="0">
+        <v>6</v>
+      </c>
+      <c r="E18" s="0">
+        <v>1</v>
+      </c>
+      <c r="F18" s="0">
+        <v>5</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="0">
+        <v>5</v>
+      </c>
+      <c r="B19" s="0">
+        <v>3</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="0">
+        <v>6</v>
+      </c>
+      <c r="B20" s="0">
+        <v>0</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="0">
+        <v>0</v>
+      </c>
+      <c r="E20" s="0">
+        <v>0</v>
+      </c>
+      <c r="F20" s="0">
+        <v>0</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="0">
+        <v>6</v>
+      </c>
+      <c r="B21" s="0">
+        <v>0</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="D21" s="0"/>
+      <c r="E21" s="0"/>
+      <c r="F21" s="0"/>
+      <c r="H21" s="0"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="0">
         <v>7</v>
       </c>
-      <c r="H11" s="0" t="s">
-        <v>83</v>
+      <c r="B22" s="0">
+        <v>0</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="0">
+        <v>0</v>
+      </c>
+      <c r="E22" s="0">
+        <v>0</v>
+      </c>
+      <c r="F22" s="0">
+        <v>0</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="0">
+        <v>7</v>
+      </c>
+      <c r="B23" s="0">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="0">
+        <v>8</v>
+      </c>
+      <c r="B24" s="0">
+        <v>0</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="0">
+        <v>0</v>
+      </c>
+      <c r="E24" s="0">
+        <v>0</v>
+      </c>
+      <c r="F24" s="0">
+        <v>0</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="0">
+        <v>8</v>
+      </c>
+      <c r="B25" s="0">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="G25" s="0"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="0">
+        <v>8</v>
+      </c>
+      <c r="B26" s="0">
+        <v>2</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="0">
+        <v>9</v>
+      </c>
+      <c r="B27" s="0">
+        <v>0</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="0">
+        <v>0</v>
+      </c>
+      <c r="E27" s="0">
+        <v>0</v>
+      </c>
+      <c r="F27" s="0">
+        <v>0</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="0">
+        <v>9</v>
+      </c>
+      <c r="B28" s="0">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="0">
+        <v>10</v>
+      </c>
+      <c r="B29" s="0">
+        <v>0</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="0">
+        <v>4</v>
+      </c>
+      <c r="E29" s="0">
+        <v>1</v>
+      </c>
+      <c r="F29" s="0">
+        <v>3</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="0">
+        <v>10</v>
+      </c>
+      <c r="B30" s="0">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="0">
+        <v>4</v>
+      </c>
+      <c r="E30" s="0">
+        <v>1</v>
+      </c>
+      <c r="F30" s="0">
+        <v>3</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="0">
+        <v>10</v>
+      </c>
+      <c r="B31" s="0">
+        <v>2</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="0">
+        <v>4</v>
+      </c>
+      <c r="E31" s="0">
+        <v>1</v>
+      </c>
+      <c r="F31" s="0">
+        <v>5</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -5062,22 +5583,80 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="0">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="0">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="0">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="0">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
     <col min="1" max="1" width="5.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" width="8.25500011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="16.75499916" customWidth="1" outlineLevel="0"/>
     <col min="3" max="3" width="15.25500011" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" width="14.75500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="0" t="s">
         <v>54</v>
       </c>
@@ -5087,38 +5666,30 @@
       <c r="C1" s="0" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="0" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="0">
         <v>1001</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>387</v>
+      </c>
+      <c r="D2" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="0">
         <v>1002</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="0">
-        <v>1003</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="0">
-        <v>3</v>
+        <v>386</v>
+      </c>
+      <c r="D3" s="0">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -5131,10 +5702,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -5150,6 +5721,11 @@
     <row r="2" spans="1:1">
       <c r="A2" s="0">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="0">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Data.xlsx
+++ b/Assets/Excel/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="4" rupBuild="9.114.136.50824"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="750" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="750" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="MainQuest" sheetId="8" r:id="rId1"/>
@@ -1890,10 +1890,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="64" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="65" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
@@ -4723,8 +4726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -4883,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>101</v>
@@ -4903,7 +4906,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>146</v>
@@ -4915,7 +4918,7 @@
         <v>261</v>
       </c>
       <c r="G9" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -4928,10 +4931,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -5041,25 +5044,13 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="0">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="0">
-        <v>3</v>
-      </c>
-      <c r="E5" s="0">
-        <v>1</v>
-      </c>
-      <c r="F5" s="0">
-        <v>3</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>287</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5067,7 +5058,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>69</v>
@@ -5082,7 +5073,7 @@
         <v>3</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5090,7 +5081,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>69</v>
@@ -5102,10 +5093,10 @@
         <v>1</v>
       </c>
       <c r="F7" s="0">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5113,10 +5104,22 @@
         <v>2</v>
       </c>
       <c r="B8" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>388</v>
+        <v>69</v>
+      </c>
+      <c r="D8" s="0">
+        <v>3</v>
+      </c>
+      <c r="E8" s="0">
+        <v>1</v>
+      </c>
+      <c r="F8" s="0">
+        <v>5</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5124,33 +5127,24 @@
         <v>2</v>
       </c>
       <c r="B9" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="0">
-        <v>4</v>
-      </c>
-      <c r="E10" s="0">
-        <v>1</v>
-      </c>
-      <c r="F10" s="0">
-        <v>3</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>287</v>
+        <v>266</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -5158,7 +5152,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>69</v>
@@ -5173,7 +5167,7 @@
         <v>3</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -5181,7 +5175,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>69</v>
@@ -5193,56 +5187,44 @@
         <v>1</v>
       </c>
       <c r="F12" s="0">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>69</v>
       </c>
       <c r="D13" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13" s="0">
         <v>1</v>
       </c>
       <c r="F13" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="0">
-        <v>5</v>
-      </c>
-      <c r="E14" s="0">
-        <v>1</v>
-      </c>
-      <c r="F14" s="0">
-        <v>3</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -5250,7 +5232,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>69</v>
@@ -5262,24 +5244,24 @@
         <v>1</v>
       </c>
       <c r="F15" s="0">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>69</v>
       </c>
       <c r="D16" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E16" s="0">
         <v>1</v>
@@ -5288,53 +5270,41 @@
         <v>3</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>287</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>69</v>
       </c>
       <c r="D17" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E17" s="0">
         <v>1</v>
       </c>
       <c r="F17" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>381</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="0">
-        <v>6</v>
-      </c>
-      <c r="E18" s="0">
-        <v>1</v>
-      </c>
-      <c r="F18" s="0">
-        <v>5</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>286</v>
+        <v>388</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -5342,90 +5312,98 @@
         <v>5</v>
       </c>
       <c r="B19" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>390</v>
+        <v>69</v>
+      </c>
+      <c r="D19" s="0">
+        <v>6</v>
+      </c>
+      <c r="E19" s="0">
+        <v>1</v>
+      </c>
+      <c r="F19" s="0">
+        <v>3</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>69</v>
       </c>
       <c r="D20" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E20" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="0">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>288</v>
+        <v>381</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="0">
+        <v>5</v>
+      </c>
+      <c r="B21" s="0">
+        <v>2</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="0">
         <v>6</v>
       </c>
-      <c r="B21" s="0">
-        <v>0</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>388</v>
-      </c>
-      <c r="D21" s="0"/>
-      <c r="E21" s="0"/>
-      <c r="F21" s="0"/>
-      <c r="H21" s="0"/>
+      <c r="E21" s="0">
+        <v>1</v>
+      </c>
+      <c r="F21" s="0">
+        <v>5</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B22" s="0">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="0">
-        <v>0</v>
-      </c>
-      <c r="E22" s="0">
-        <v>0</v>
-      </c>
-      <c r="F22" s="0">
-        <v>0</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>383</v>
+        <v>389</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B23" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B24" s="0">
         <v>0</v>
@@ -5443,136 +5421,217 @@
         <v>0</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>396</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>388</v>
       </c>
-      <c r="G25" s="0"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>399</v>
+        <v>69</v>
+      </c>
+      <c r="D26" s="0">
+        <v>0</v>
+      </c>
+      <c r="E26" s="0">
+        <v>0</v>
+      </c>
+      <c r="F26" s="0">
+        <v>0</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B27" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="0">
-        <v>0</v>
-      </c>
-      <c r="E27" s="0">
-        <v>0</v>
-      </c>
-      <c r="F27" s="0">
-        <v>0</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>397</v>
+        <v>70</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>388</v>
+        <v>69</v>
+      </c>
+      <c r="D28" s="0">
+        <v>0</v>
+      </c>
+      <c r="E28" s="0">
+        <v>0</v>
+      </c>
+      <c r="F28" s="0">
+        <v>0</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="0">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B29" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" s="0">
-        <v>4</v>
-      </c>
-      <c r="E29" s="0">
-        <v>1</v>
-      </c>
-      <c r="F29" s="0">
-        <v>3</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="0">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B30" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="0">
-        <v>4</v>
-      </c>
-      <c r="E30" s="0">
-        <v>1</v>
-      </c>
-      <c r="F30" s="0">
-        <v>3</v>
+        <v>399</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>285</v>
+        <v>400</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B31" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>69</v>
       </c>
       <c r="D31" s="0">
+        <v>0</v>
+      </c>
+      <c r="E31" s="0">
+        <v>0</v>
+      </c>
+      <c r="F31" s="0">
+        <v>0</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="0">
+        <v>9</v>
+      </c>
+      <c r="B32" s="0">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="0">
+        <v>10</v>
+      </c>
+      <c r="B33" s="0">
+        <v>0</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="0">
         <v>4</v>
       </c>
-      <c r="E31" s="0">
-        <v>1</v>
-      </c>
-      <c r="F31" s="0">
-        <v>5</v>
-      </c>
-      <c r="H31" s="0" t="s">
+      <c r="E33" s="0">
+        <v>1</v>
+      </c>
+      <c r="F33" s="0">
+        <v>3</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="0">
+        <v>10</v>
+      </c>
+      <c r="B34" s="0">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="0">
+        <v>4</v>
+      </c>
+      <c r="E34" s="0">
+        <v>1</v>
+      </c>
+      <c r="F34" s="0">
+        <v>3</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="0">
+        <v>10</v>
+      </c>
+      <c r="B35" s="0">
+        <v>2</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="0">
+        <v>4</v>
+      </c>
+      <c r="E35" s="0">
+        <v>1</v>
+      </c>
+      <c r="F35" s="0">
+        <v>5</v>
+      </c>
+      <c r="H35" s="0" t="s">
         <v>286</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="0">
+        <v>10</v>
+      </c>
+      <c r="B36" s="0">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -5645,7 +5704,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>

--- a/Assets/Excel/Data.xlsx
+++ b/Assets/Excel/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="9.114.136.50824"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="750" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="740" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="MainQuest" sheetId="8" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="NPC" sheetId="1" r:id="rId12"/>
     <sheet name="Member" sheetId="13" r:id="rId13"/>
     <sheet name="Tower" sheetId="10" r:id="rId14"/>
-    <sheet name="ITEM" sheetId="2" r:id="rId15"/>
+    <sheet name="Item" sheetId="2" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="152511"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="266">
   <si>
     <t>Id</t>
   </si>
@@ -811,6 +811,36 @@
   </si>
   <si>
     <t>난 헤라라고 해.</t>
+  </si>
+  <si>
+    <t>sprite</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>tilePath</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>actionType</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>stackable</t>
+  </si>
+  <si>
+    <t>imagePath</t>
+  </si>
+  <si>
+    <t>maxStackedItems</t>
   </si>
 </sst>
 </file>
@@ -1167,7 +1197,6 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1176,7 +1205,6 @@
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1185,7 +1213,6 @@
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1194,7 +1221,6 @@
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1209,7 +1235,6 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1224,7 +1249,6 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -1239,7 +1263,6 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1248,7 +1271,6 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1259,7 +1281,6 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -4016,29 +4037,51 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
     <col min="3" max="3" width="11.75500011" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" width="8.50500011" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" width="11.13000011" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" width="17.00499916" customWidth="1" outlineLevel="0"/>
+    <col min="9" max="9" width="10.88000011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:9">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>258</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="0">
         <v>1</v>
       </c>
@@ -4049,7 +4092,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:9">
       <c r="A3" s="0">
         <v>2</v>
       </c>
@@ -4060,7 +4103,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:9">
       <c r="A4" s="0">
         <v>3</v>
       </c>
@@ -4238,8 +4281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>

--- a/Assets/Excel/Data.xlsx
+++ b/Assets/Excel/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="9.114.136.50824"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="740" activeTab="14"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="730" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="MainQuest" sheetId="8" r:id="rId1"/>
@@ -42,8 +42,15 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors/>
+  <commentList/>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="277">
   <si>
     <t>Id</t>
   </si>
@@ -841,6 +848,39 @@
   </si>
   <si>
     <t>maxStackedItems</t>
+  </si>
+  <si>
+    <t>isOpen</t>
+  </si>
+  <si>
+    <t>Tool</t>
+  </si>
+  <si>
+    <t>Dig</t>
+  </si>
+  <si>
+    <t>Mine</t>
+  </si>
+  <si>
+    <t>Grow</t>
+  </si>
+  <si>
+    <t>Item_Image_Pickaxe</t>
+  </si>
+  <si>
+    <t>Item_Image_Shovel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">톱 </t>
+  </si>
+  <si>
+    <t>나무를 벤다</t>
+  </si>
+  <si>
+    <t>Item_Image_Saw</t>
+  </si>
+  <si>
+    <t>FAlLSE</t>
   </si>
 </sst>
 </file>
@@ -3991,7 +4031,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -4002,16 +4042,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>55</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>59</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4040,16 +4080,17 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
     <col min="3" max="3" width="11.75500011" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" width="19.25499916" customWidth="1" outlineLevel="0"/>
     <col min="5" max="5" width="8.50500011" customWidth="1" outlineLevel="0"/>
     <col min="6" max="6" width="11.13000011" customWidth="1" outlineLevel="0"/>
     <col min="7" max="7" width="17.00499916" customWidth="1" outlineLevel="0"/>
-    <col min="9" max="9" width="10.88000011" customWidth="1" outlineLevel="0"/>
+    <col min="9" max="9" width="19.25499916" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -4086,10 +4127,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="G2" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4097,10 +4156,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="G3" s="0">
+        <v>1</v>
+      </c>
+      <c r="H3" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4108,16 +4185,35 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>36</v>
+        <v>273</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>37</v>
+        <v>274</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="G4" s="0">
+        <v>1</v>
+      </c>
+      <c r="H4" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
